--- a/Docs/AT-ETX-2i10G.CBL04.xlsx
+++ b/Docs/AT-ETX-2i10G.CBL04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocuments\ate\AutoTesters\TCL\ETX-2i-10G\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5D9338-795E-4C42-8A01-CD707382B05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F06E057-92C0-41D4-941F-B875B03F3BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="1455" windowWidth="20895" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5205" yWindow="480" windowWidth="21945" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,11 +1054,11 @@
         <v>10</v>
       </c>
       <c r="C39" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3">
         <f>$C$35*C39</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">

--- a/Docs/AT-ETX-2i10G.CBL04.xlsx
+++ b/Docs/AT-ETX-2i10G.CBL04.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocuments\ate\AutoTesters\TCL\ETX-2i-10G\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F06E057-92C0-41D4-941F-B875B03F3BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EC75F0-FC41-495B-B656-32FB89118509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="480" windowWidth="21945" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="1665" windowWidth="20265" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk100481485" localSheetId="0">Sheet1!$B$38</definedName>
+    <definedName name="_Hlk100481485" localSheetId="0">Sheet1!$B$39</definedName>
     <definedName name="_Hlk301858770" localSheetId="0">Sheet1!$B$9</definedName>
     <definedName name="OLE_LINK4" localSheetId="0">Sheet1!$A$1</definedName>
   </definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Catalog number</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Please attach a label the with Cable Name to the cable</t>
+  </si>
+  <si>
+    <t>TIE STRAP TY23M</t>
   </si>
 </sst>
 </file>
@@ -408,80 +411,19 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1657350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2162175" y="3505200"/>
-          <a:ext cx="1362075" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1352550</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -516,6 +458,61 @@
                 </a14:hiddenFill>
               </a:ext>
             </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>78706</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>59657</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1844842</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>173957</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{456297C4-EFC8-4ACA-DD83-B33B4B61EF0F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -789,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,7 +921,9 @@
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="12"/>
+      <c r="C16" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -933,44 +932,47 @@
       <c r="C17" s="12"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="17"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>17</v>
-      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19">
+        <v>2</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19">
         <v>3</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D22" s="19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -1004,93 +1006,96 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="5">
-        <v>250</v>
-      </c>
-      <c r="D34" s="20"/>
+      <c r="A34" s="2"/>
+      <c r="C34" s="22"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="5">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="D35" s="20"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5">
+        <v>4</v>
+      </c>
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C37" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
       <c r="D37" s="20"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C40" s="3">
         <v>1</v>
       </c>
-      <c r="D39" s="3">
-        <f>$C$35*C39</f>
+      <c r="D40" s="3">
+        <f>$C$36*C40</f>
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="24" t="s">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="3">
-        <f>C34</f>
+      <c r="C41" s="3">
+        <f>C35</f>
         <v>250</v>
       </c>
-      <c r="D40" s="3">
-        <f>$C$35*C40</f>
+      <c r="D41" s="3">
+        <f>$C$36*C41</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="24">
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="24">
         <v>3200030</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C42" s="5">
         <v>6</v>
       </c>
-      <c r="D41" s="3">
-        <f>$C$35*C41</f>
+      <c r="D42" s="3">
+        <f>$C$36*C42</f>
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="6"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D43" s="6"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1111,13 +1116,13 @@
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1352550</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
@@ -1128,6 +1133,31 @@
         <oleObject progId="SmartDraw.2" shapeId="1027" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="SmartDraw.2" shapeId="1028" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1847850</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="SmartDraw.2" shapeId="1028" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>